--- a/Dir Means.xlsx
+++ b/Dir Means.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewpierson/Desktop/Heloderma Spatial/Heloderma Spatial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33594EF9-9AE9-1D48-9D17-A29B6A63C495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDBD77E-FC7C-214B-9951-69A2B9F3FD76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="2000" windowWidth="10000" windowHeight="9920" xr2:uid="{BEBDF266-23BE-DD4A-9D8F-4D570441E328}"/>
+    <workbookView xWindow="100" yWindow="660" windowWidth="10000" windowHeight="9920" xr2:uid="{BEBDF266-23BE-DD4A-9D8F-4D570441E328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Environment</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Stone Canyon</t>
-  </si>
-  <si>
-    <t>EMMean</t>
   </si>
   <si>
     <t>Lower CL</t>
@@ -91,7 +88,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Directional home range means (100% MCP) of Owl Head and Stone Canyon Gila Monsters after being adjusted for year, sex and sample size.</t>
+      <t>Directional home range estimated marginal means (100% MCP) of Owl Head and Stone Canyon Gila Monsters after being adjusted for year, sex and sample size.</t>
+    </r>
+  </si>
+  <si>
+    <t>EMMean (ha.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 6 |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Directional home range estimated marginal means (95% MCP) of Owl Head and Stone Canyon Gila Monsters after being adjusted for year, sex and sample size.</t>
     </r>
   </si>
 </sst>
@@ -494,20 +517,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9CC662-C458-1649-9183-346C2380942A}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -522,13 +545,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -539,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="6">
         <v>11.7</v>
@@ -556,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="6">
         <v>31.3</v>
@@ -573,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="6">
         <v>1.7</v>
@@ -590,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="9">
         <v>5.6</v>
@@ -599,10 +622,106 @@
         <v>20.7</v>
       </c>
     </row>
+    <row r="9" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>11.7</v>
+      </c>
+      <c r="E11" s="10">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6">
+        <v>31.3</v>
+      </c>
+      <c r="E12" s="10">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="E13" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="E14" s="11">
+        <v>20.7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>